--- a/data/trans_camb/P18_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,29</t>
+          <t>18,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,05</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,07</t>
+          <t>20,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>16,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,06</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,5</t>
+          <t>19,53</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,93</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,07</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -9,91</t>
+          <t>8,33; 29,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 1,58</t>
+          <t>1,53; 25,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -0,27</t>
+          <t>0,77; 24,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -14,34</t>
+          <t>-20,21; 14,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -9,62</t>
+          <t>9,93; 28,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,72; -9,31</t>
+          <t>7,17; 26,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -14,66</t>
+          <t>4,84; 23,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -6,65</t>
+          <t>4,2; 25,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,37; -7,51</t>
+          <t>12,77; 27,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 22,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 22,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 17,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-46,63%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,89%</t>
+          <t>61,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,14%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,33%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,46%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,28%</t>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,54; -29,09</t>
+          <t>12,49; 56,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 5,55</t>
+          <t>2,74; 48,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -0,11</t>
+          <t>1,22; 46,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,89; -22,47</t>
+          <t>-29,59; 25,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -15,25</t>
+          <t>26,24; 104,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -14,44</t>
+          <t>18,41; 96,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,53; -28,89</t>
+          <t>12,59; 86,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,56; -12,68</t>
+          <t>11,7; 94,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -14,95</t>
+          <t>25,97; 67,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 54,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 54,86</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 41,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,75</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>19,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,46</t>
+          <t>10,52</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,57</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,69</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 3,01</t>
+          <t>-2,13; 21,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 7,21</t>
+          <t>-8,89; 16,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 3,64</t>
+          <t>-4,67; 19,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,49; -1,6</t>
+          <t>-6,64; 17,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 1,96</t>
+          <t>-0,05; 22,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -2,64</t>
+          <t>-1,3; 22,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -2,76</t>
+          <t>3,44; 26,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 1,84</t>
+          <t>7,57; 31,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -2,27</t>
+          <t>2,22; 20,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 17,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 20,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 21,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-19,97%</t>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 10,65</t>
+          <t>-3,46; 38,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 24,93</t>
+          <t>-13,36; 30,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 12,0</t>
+          <t>-6,67; 36,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,81; -3,48</t>
+          <t>-9,49; 33,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 3,69</t>
+          <t>-0,62; 68,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,73; -4,79</t>
+          <t>-2,97; 70,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,71; -5,78</t>
+          <t>8,17; 82,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 4,21</t>
+          <t>17,26; 97,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -5,11</t>
+          <t>4,04; 45,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 38,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 46,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 49,44</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-21,79</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-26,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-40,24</t>
+          <t>-23,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-26,72</t>
+          <t>38,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,55</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-30,6</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-16,16</t>
+          <t>20,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>22,54</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,83</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 0,17</t>
+          <t>-26,29; 35,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 16,67</t>
+          <t>-27,67; 34,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 28,48</t>
+          <t>-62,26; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-55,62; -22,36</t>
+          <t>-60,53; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -10,02</t>
+          <t>15,77; 59,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 1,76</t>
+          <t>-4,16; 38,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -14,89</t>
+          <t>-11,93; 33,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,17; -0,77</t>
+          <t>-2,22; 42,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 9,52</t>
+          <t>1,6; 42,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 31,89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 10,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-30,35; 15,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-50,37%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>-40,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,86%</t>
+          <t>-36,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-37,09%</t>
+          <t>128,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,19%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-53,7%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-28,35%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-17,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,02; -2,84</t>
+          <t>-34,7; 76,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 51,56</t>
+          <t>-40,97; 73,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,6; 99,51</t>
+          <t>-79,19; 13,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -35,32</t>
+          <t>-76,33; 17,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -15,74</t>
+          <t>36,89; 352,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 3,21</t>
+          <t>-12,77; 230,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,37; -32,72</t>
+          <t>-30,73; 191,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,9; -3,16</t>
+          <t>-8,34; 251,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 19,38</t>
+          <t>0,87; 119,61</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 91,57</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,04; 29,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,4; 40,75</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,55</t>
+          <t>14,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,97</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>16,19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,83</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10,81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -8,35</t>
+          <t>5,8; 21,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,03</t>
+          <t>0,2; 16,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 0,22</t>
+          <t>-3,45; 14,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -13,56</t>
+          <t>-13,47; 8,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -9,18</t>
+          <t>11,59; 24,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -9,27</t>
+          <t>7,5; 21,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -12,82</t>
+          <t>6,73; 20,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -5,89</t>
+          <t>10,4; 24,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,92</t>
+          <t>10,35; 21,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 17,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 16,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 15,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-29,98%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,66%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-33,0%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,84; -22,64</t>
+          <t>8,81; 39,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 3,66</t>
+          <t>0,46; 28,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 0,66</t>
+          <t>-5,23; 25,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -21,79</t>
+          <t>-20,53; 14,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -14,62</t>
+          <t>29,5; 78,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -15,5</t>
+          <t>19,74; 70,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -26,26</t>
+          <t>17,38; 67,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,41; -12,19</t>
+          <t>27,88; 80,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,67; -13,96</t>
+          <t>20,5; 48,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 40,29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 37,42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 34,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
